--- a/FieldData/2015/xlsx_analysis/01-008 Field Data.xlsx
+++ b/FieldData/2015/xlsx_analysis/01-008 Field Data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fc4fc14c9be0aac/Documents/GitHub/CompSites/FieldData/2015/xlsx_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{7A40B12C-C576-47AF-9678-8EF6A1C6FB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12A909C2-BECB-4C5F-9294-82D346B61B25}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{534644D6-DAFB-4F51-9E75-9A25BC1AE42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF1ABBB-1CC4-4743-B3B2-3A78C3CCCBE2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="01-008" sheetId="1" r:id="rId1"/>
+    <sheet name="Marsh" sheetId="1" r:id="rId1"/>
     <sheet name="R-Overstory" sheetId="2" r:id="rId2"/>
     <sheet name="R-Understory" sheetId="3" r:id="rId3"/>
     <sheet name="R-Snags" sheetId="5" r:id="rId4"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="166">
-  <si>
-    <t>SITE ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="167">
   <si>
     <t>PLOT</t>
   </si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t xml:space="preserve">European forget-me-not </t>
@@ -471,9 +471,6 @@
     <t>dull Oregon grape</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>slender rush</t>
   </si>
   <si>
@@ -529,13 +526,19 @@
     <t>horehound</t>
   </si>
   <si>
+    <t>SITE_ID</t>
+  </si>
+  <si>
+    <t>SPECIES_CODE</t>
+  </si>
+  <si>
     <t>PERCENT_COVER</t>
   </si>
   <si>
-    <t>MAX_LH</t>
+    <t>ORIGIN</t>
   </si>
   <si>
-    <t>ORIGIN</t>
+    <t>MAX_LH</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1682,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1899,16 +1902,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1971,6 +1966,22 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="117">
@@ -3415,13 +3426,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IO228"/>
+  <dimension ref="A1:IO227"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C155" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3431,37 +3442,37 @@
     <col min="3" max="3" width="5.09765625" style="37" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="55" customWidth="1"/>
     <col min="5" max="5" width="22.8984375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="4.59765625" style="37" customWidth="1"/>
     <col min="7" max="7" width="6.09765625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.09765625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="37" customWidth="1"/>
     <col min="9" max="249" width="8.59765625" style="37" customWidth="1"/>
     <col min="250" max="16384" width="8.59765625" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="39" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>165</v>
       </c>
       <c r="H1" s="39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -3484,7 +3495,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="45"/>
     </row>
@@ -3499,65 +3510,61 @@
         <v>1</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F3" s="44">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="45">
-        <v>45</v>
-      </c>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="40">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" s="41">
         <v>1</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>71</v>
+      <c r="D4" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="F4" s="44">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="45">
-        <v>40</v>
-      </c>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="40">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C5" s="41">
         <v>1</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="F5" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="40" t="s">
         <v>7</v>
@@ -3569,19 +3576,19 @@
         <v>49</v>
       </c>
       <c r="B6" s="40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="41">
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="F6" s="44">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="40" t="s">
         <v>7</v>
@@ -3593,19 +3600,19 @@
         <v>49</v>
       </c>
       <c r="B7" s="40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="41">
         <v>1</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>41</v>
+      <c r="D7" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F7" s="44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="40" t="s">
         <v>7</v>
@@ -3617,16 +3624,16 @@
         <v>49</v>
       </c>
       <c r="B8" s="40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="41">
         <v>1</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>52</v>
+      <c r="D8" s="42" t="s">
+        <v>78</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F8" s="44">
         <v>0.5</v>
@@ -3641,19 +3648,19 @@
         <v>49</v>
       </c>
       <c r="B9" s="40">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="41">
         <v>1</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>53</v>
+      <c r="D9" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="F9" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="40" t="s">
         <v>7</v>
@@ -3665,19 +3672,19 @@
         <v>49</v>
       </c>
       <c r="B10" s="40">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" s="41">
         <v>1</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>56</v>
+      <c r="D10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="F10" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="40" t="s">
         <v>7</v>
@@ -3689,22 +3696,22 @@
         <v>49</v>
       </c>
       <c r="B11" s="40">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C11" s="41">
         <v>1</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="45"/>
     </row>
@@ -3713,529 +3720,528 @@
         <v>49</v>
       </c>
       <c r="B12" s="40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="41">
         <v>1</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="40" t="s">
+      <c r="D12" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="45">
+        <v>3</v>
+      </c>
+      <c r="G12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="56"/>
     </row>
     <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="41">
         <v>1</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="44">
-        <v>5</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="45"/>
+      <c r="D13" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="45">
+        <v>1</v>
+      </c>
+      <c r="G13" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="40">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C14" s="41">
         <v>1</v>
       </c>
-      <c r="D14" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="44">
-        <v>31</v>
-      </c>
-      <c r="G14" s="40" t="s">
+      <c r="D14" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="45">
+        <v>1</v>
+      </c>
+      <c r="G14" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="45">
-        <v>54</v>
-      </c>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="40">
-        <v>8</v>
-      </c>
-      <c r="C15" s="41">
+        <v>10</v>
+      </c>
+      <c r="C15" s="40">
         <v>1</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="44">
-        <v>45</v>
-      </c>
-      <c r="G15" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="45">
+        <v>3</v>
+      </c>
+      <c r="G15" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="45">
-        <v>130</v>
-      </c>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="40">
-        <v>8</v>
-      </c>
-      <c r="C16" s="41">
-        <v>1</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>62</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="40">
+        <v>1</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="44">
-        <v>2</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="45"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="45">
+        <v>1</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="40">
-        <v>8</v>
-      </c>
-      <c r="C17" s="41">
-        <v>1</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="45">
+        <v>2</v>
+      </c>
+      <c r="G17" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="45"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="40">
-        <v>8</v>
-      </c>
-      <c r="C18" s="41">
-        <v>1</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="44">
-        <v>4</v>
-      </c>
-      <c r="G18" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="40">
+        <v>1</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="45"/>
+      <c r="H18" s="56"/>
     </row>
     <row r="19" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="40">
-        <v>8</v>
-      </c>
-      <c r="C19" s="41">
-        <v>1</v>
-      </c>
-      <c r="D19" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="40">
+        <v>1</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="57">
+        <v>1</v>
+      </c>
+      <c r="G19" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="45"/>
+      <c r="H19" s="51"/>
     </row>
     <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="40">
-        <v>8</v>
-      </c>
-      <c r="C20" s="41">
+      <c r="B20" s="51">
+        <v>13</v>
+      </c>
+      <c r="C20" s="51">
         <v>1</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="44">
-        <v>1</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="45"/>
+        <v>78</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="40">
-        <v>8</v>
-      </c>
-      <c r="C21" s="41">
-        <v>1</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="44">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21" s="45"/>
+      <c r="B21" s="51">
+        <v>19</v>
+      </c>
+      <c r="C21" s="51">
+        <v>1</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="57">
+        <v>1</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="40">
-        <v>8</v>
-      </c>
-      <c r="C22" s="41">
-        <v>1</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="44">
+      <c r="B22" s="51">
+        <v>19</v>
+      </c>
+      <c r="C22" s="51">
+        <v>1</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="57">
         <v>0.5</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="45"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="40">
-        <v>8</v>
-      </c>
-      <c r="C23" s="41">
-        <v>1</v>
-      </c>
-      <c r="D23" s="50"/>
+      <c r="B23" s="51">
+        <v>17</v>
+      </c>
+      <c r="C23" s="51">
+        <v>1</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="E23" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="44">
-        <f>100-SUM(F14:F22)</f>
-        <v>14.5</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="45"/>
+        <v>9</v>
+      </c>
+      <c r="F23" s="57">
+        <v>3</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="40">
-        <v>16</v>
-      </c>
-      <c r="C24" s="41">
-        <v>1</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="44">
-        <v>8</v>
-      </c>
-      <c r="G24" s="40" t="s">
+      <c r="B24" s="51">
+        <v>17</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="45">
-        <v>44</v>
-      </c>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="40">
-        <v>16</v>
-      </c>
-      <c r="C25" s="41">
-        <v>1</v>
-      </c>
-      <c r="D25" s="111" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="105" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="44">
-        <v>15</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="45"/>
+      <c r="B25" s="51">
+        <v>17</v>
+      </c>
+      <c r="C25" s="51">
+        <v>1</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="57">
+        <v>1</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="40">
-        <v>16</v>
-      </c>
-      <c r="C26" s="41">
-        <v>1</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="44">
-        <v>8</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="H26" s="45"/>
+      <c r="B26" s="51">
+        <v>1</v>
+      </c>
+      <c r="C26" s="51">
+        <v>1</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="57">
+        <v>1</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="40">
-        <v>16</v>
-      </c>
-      <c r="C27" s="41">
-        <v>1</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="43" t="s">
+      <c r="B27" s="51">
         <v>9</v>
       </c>
-      <c r="F27" s="44">
-        <v>25</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="45"/>
+      <c r="C27" s="51">
+        <v>1</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="57">
+        <v>1</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="40">
-        <v>16</v>
-      </c>
-      <c r="C28" s="41">
+      <c r="B28" s="51">
+        <v>18</v>
+      </c>
+      <c r="C28" s="51">
         <v>1</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="44">
-        <v>4</v>
-      </c>
-      <c r="G28" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="57">
+        <v>1</v>
+      </c>
+      <c r="G28" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="40">
-        <v>16</v>
-      </c>
-      <c r="C29" s="41">
-        <v>1</v>
-      </c>
-      <c r="D29" s="108" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="109" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="44">
+      <c r="B29" s="51">
+        <v>18</v>
+      </c>
+      <c r="C29" s="51">
+        <v>1</v>
+      </c>
+      <c r="D29" s="129" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="133" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="57">
         <v>0.5</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="40">
-        <v>16</v>
-      </c>
-      <c r="C30" s="41">
-        <v>1</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>70</v>
+      <c r="B30" s="51">
+        <v>7</v>
+      </c>
+      <c r="C30" s="51">
+        <v>1</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="44">
-        <v>35</v>
-      </c>
-      <c r="G30" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="57">
+        <v>2</v>
+      </c>
+      <c r="G30" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="45">
-        <v>115</v>
-      </c>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="40">
-        <v>16</v>
-      </c>
-      <c r="C31" s="41">
-        <v>1</v>
-      </c>
-      <c r="D31" s="50" t="s">
+      <c r="B31" s="51">
+        <v>7</v>
+      </c>
+      <c r="C31" s="51">
+        <v>1</v>
+      </c>
+      <c r="D31" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="44">
-        <v>8</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="45"/>
+      <c r="F31" s="57">
+        <v>10</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="40">
-        <v>16</v>
-      </c>
-      <c r="C32" s="41">
-        <v>1</v>
-      </c>
-      <c r="D32" s="110" t="s">
-        <v>159</v>
+      <c r="B32" s="51">
+        <v>12</v>
+      </c>
+      <c r="C32" s="51">
+        <v>1</v>
+      </c>
+      <c r="D32" s="128" t="s">
+        <v>50</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F32" s="44">
+        <v>9</v>
+      </c>
+      <c r="F32" s="57">
+        <v>2</v>
+      </c>
+      <c r="G32" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="58"/>
     </row>
     <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="40">
-        <v>16</v>
-      </c>
-      <c r="C33" s="41">
-        <v>1</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F33" s="44">
+      <c r="B33" s="51">
+        <v>12</v>
+      </c>
+      <c r="C33" s="51">
+        <v>1</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="57">
         <v>0.5</v>
       </c>
-      <c r="G33" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="45"/>
+      <c r="G33" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="40" t="s">
@@ -4247,17 +4253,17 @@
       <c r="C34" s="41">
         <v>1</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>55</v>
+      <c r="D34" s="50" t="s">
+        <v>72</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F34" s="44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="H34" s="45"/>
     </row>
@@ -4266,22 +4272,22 @@
         <v>49</v>
       </c>
       <c r="B35" s="40">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" s="41">
         <v>1</v>
       </c>
       <c r="D35" s="50" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F35" s="44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="H35" s="45"/>
     </row>
@@ -4290,279 +4296,290 @@
         <v>49</v>
       </c>
       <c r="B36" s="40">
-        <v>16</v>
-      </c>
-      <c r="C36" s="41">
+        <v>10</v>
+      </c>
+      <c r="C36" s="40">
         <v>1</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="44">
-        <v>1</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="45"/>
+        <v>73</v>
+      </c>
+      <c r="F36" s="45">
+        <v>22</v>
+      </c>
+      <c r="G36" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H36" s="56"/>
     </row>
     <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B37" s="40">
-        <v>16</v>
-      </c>
-      <c r="C37" s="41">
+        <v>20</v>
+      </c>
+      <c r="C37" s="40">
         <v>1</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="44">
+        <v>72</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="45">
         <v>0.5</v>
       </c>
-      <c r="G37" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="45"/>
+      <c r="G37" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="56"/>
     </row>
     <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="40">
-        <v>16</v>
-      </c>
-      <c r="C38" s="41">
-        <v>1</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="44">
+      <c r="B38" s="51">
+        <v>13</v>
+      </c>
+      <c r="C38" s="51">
+        <v>1</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="57">
         <v>0.5</v>
       </c>
-      <c r="G38" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="45"/>
+      <c r="G38" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="H38" s="51"/>
     </row>
     <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="40">
-        <v>3</v>
-      </c>
-      <c r="C39" s="41">
-        <v>1</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="44">
-        <v>3</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="45"/>
+      <c r="B39" s="51">
+        <v>19</v>
+      </c>
+      <c r="C39" s="51">
+        <v>1</v>
+      </c>
+      <c r="D39" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="57">
+        <v>1</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="40">
-        <v>3</v>
-      </c>
-      <c r="C40" s="41">
-        <v>1</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="44">
-        <v>37</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="45"/>
+      <c r="B40" s="51">
+        <v>1</v>
+      </c>
+      <c r="C40" s="51">
+        <v>1</v>
+      </c>
+      <c r="D40" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="57">
+        <v>46</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="58"/>
     </row>
     <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="40">
-        <v>3</v>
-      </c>
-      <c r="C41" s="41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="44">
-        <v>2</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="45"/>
+      <c r="B41" s="51">
+        <v>1</v>
+      </c>
+      <c r="C41" s="51">
+        <v>1</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="40">
-        <v>3</v>
-      </c>
-      <c r="C42" s="41">
-        <v>1</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="44">
-        <v>3</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="45"/>
+      <c r="B42" s="51">
+        <v>9</v>
+      </c>
+      <c r="C42" s="51">
+        <v>1</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="57">
+        <v>6</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="51">
+        <v>7</v>
+      </c>
+      <c r="C43" s="51">
+        <v>1</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="57">
         <v>3</v>
       </c>
-      <c r="C43" s="41">
-        <v>1</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="F43" s="44">
-        <v>32</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="45"/>
+      <c r="G43" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H43" s="58"/>
     </row>
     <row r="44" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="40">
-        <v>3</v>
-      </c>
-      <c r="C44" s="41">
-        <v>1</v>
-      </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" s="44">
-        <v>20</v>
-      </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="45"/>
+      <c r="B44" s="51">
+        <v>7</v>
+      </c>
+      <c r="C44" s="51">
+        <v>1</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="57">
+        <v>1</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H44" s="58"/>
     </row>
     <row r="45" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="40">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C45" s="41">
         <v>1</v>
       </c>
-      <c r="D45" s="50"/>
+      <c r="D45" s="42" t="s">
+        <v>90</v>
+      </c>
       <c r="E45" s="43" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F45" s="44">
-        <f>100-SUM(F40:F44)</f>
+        <v>25</v>
+      </c>
+      <c r="G45" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="45"/>
+      <c r="H45" s="45">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="40">
+        <v>15</v>
+      </c>
+      <c r="C46" s="41">
+        <v>1</v>
+      </c>
+      <c r="D46" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="44">
+        <v>10</v>
+      </c>
+      <c r="G46" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="41">
-        <v>1</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="44">
-        <v>42</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="45"/>
+      <c r="H46" s="45">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B47" s="40">
+        <v>15</v>
+      </c>
+      <c r="C47" s="41">
+        <v>1</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="44">
+        <v>3</v>
+      </c>
+      <c r="G47" s="40" t="s">
         <v>6</v>
-      </c>
-      <c r="C47" s="41">
-        <v>1</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="44">
-        <v>5</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>7</v>
       </c>
       <c r="H47" s="45"/>
     </row>
@@ -4571,22 +4588,22 @@
         <v>49</v>
       </c>
       <c r="B48" s="40">
+        <v>15</v>
+      </c>
+      <c r="C48" s="41">
+        <v>1</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="44">
+        <v>27</v>
+      </c>
+      <c r="G48" s="40" t="s">
         <v>6</v>
-      </c>
-      <c r="C48" s="41">
-        <v>1</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="44">
-        <v>1</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>8</v>
       </c>
       <c r="H48" s="45"/>
     </row>
@@ -4595,22 +4612,22 @@
         <v>49</v>
       </c>
       <c r="B49" s="40">
+        <v>15</v>
+      </c>
+      <c r="C49" s="41">
+        <v>1</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F49" s="44">
+        <v>7</v>
+      </c>
+      <c r="G49" s="40" t="s">
         <v>6</v>
-      </c>
-      <c r="C49" s="41">
-        <v>1</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F49" s="44">
-        <v>6</v>
-      </c>
-      <c r="G49" s="40" t="s">
-        <v>7</v>
       </c>
       <c r="H49" s="45"/>
     </row>
@@ -4619,22 +4636,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="40">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C50" s="41">
         <v>1</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F50" s="44">
         <v>0.5</v>
       </c>
       <c r="G50" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H50" s="45"/>
     </row>
@@ -4643,22 +4660,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="40">
+        <v>15</v>
+      </c>
+      <c r="C51" s="41">
+        <v>1</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="44">
+        <v>1</v>
+      </c>
+      <c r="G51" s="40" t="s">
         <v>6</v>
-      </c>
-      <c r="C51" s="41">
-        <v>1</v>
-      </c>
-      <c r="D51" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="44">
-        <v>2</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>8</v>
       </c>
       <c r="H51" s="45"/>
     </row>
@@ -4667,22 +4684,22 @@
         <v>49</v>
       </c>
       <c r="B52" s="40">
+        <v>15</v>
+      </c>
+      <c r="C52" s="41">
+        <v>1</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="44">
+        <v>3</v>
+      </c>
+      <c r="G52" s="40" t="s">
         <v>6</v>
-      </c>
-      <c r="C52" s="41">
-        <v>1</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="44">
-        <v>5</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>7</v>
       </c>
       <c r="H52" s="45"/>
     </row>
@@ -4691,22 +4708,22 @@
         <v>49</v>
       </c>
       <c r="B53" s="40">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C53" s="41">
         <v>1</v>
       </c>
-      <c r="D53" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>43</v>
+      <c r="D53" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>59</v>
       </c>
       <c r="F53" s="44">
         <v>0.5</v>
       </c>
       <c r="G53" s="40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H53" s="45"/>
     </row>
@@ -4715,70 +4732,74 @@
         <v>49</v>
       </c>
       <c r="B54" s="40">
+        <v>8</v>
+      </c>
+      <c r="C54" s="41">
+        <v>1</v>
+      </c>
+      <c r="D54" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="44">
+        <v>31</v>
+      </c>
+      <c r="G54" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="41">
-        <v>1</v>
-      </c>
-      <c r="D54" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="45"/>
+      <c r="H54" s="45">
+        <v>54</v>
+      </c>
     </row>
     <row r="55" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="40">
+        <v>8</v>
+      </c>
+      <c r="C55" s="41">
+        <v>1</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" s="44">
+        <v>45</v>
+      </c>
+      <c r="G55" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="41">
-        <v>1</v>
-      </c>
-      <c r="D55" s="50" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="44">
-        <v>2</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="45"/>
+      <c r="H55" s="45">
+        <v>130</v>
+      </c>
     </row>
     <row r="56" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B56" s="40">
+        <v>8</v>
+      </c>
+      <c r="C56" s="41">
+        <v>1</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="40" t="s">
         <v>6</v>
-      </c>
-      <c r="C56" s="41">
-        <v>1</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="44">
-        <v>1</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>7</v>
       </c>
       <c r="H56" s="45"/>
     </row>
@@ -4787,22 +4808,22 @@
         <v>49</v>
       </c>
       <c r="B57" s="40">
+        <v>8</v>
+      </c>
+      <c r="C57" s="41">
+        <v>1</v>
+      </c>
+      <c r="D57" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F57" s="44">
+        <v>4</v>
+      </c>
+      <c r="G57" s="40" t="s">
         <v>6</v>
-      </c>
-      <c r="C57" s="41">
-        <v>1</v>
-      </c>
-      <c r="D57" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E57" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>7</v>
       </c>
       <c r="H57" s="45"/>
     </row>
@@ -4811,20 +4832,23 @@
         <v>49</v>
       </c>
       <c r="B58" s="40">
+        <v>8</v>
+      </c>
+      <c r="C58" s="41">
+        <v>1</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="41">
-        <v>1</v>
-      </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="F58" s="44">
-        <f>100-SUM(F46:F57)</f>
-        <v>34</v>
-      </c>
-      <c r="G58" s="40"/>
       <c r="H58" s="45"/>
     </row>
     <row r="59" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4832,72 +4856,72 @@
         <v>49</v>
       </c>
       <c r="B59" s="40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C59" s="41">
         <v>1</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="40" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="F59" s="44">
-        <v>35</v>
+        <v>0.5</v>
       </c>
       <c r="G59" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="45">
-        <v>127</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H59" s="45"/>
     </row>
     <row r="60" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B60" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C60" s="41">
         <v>1</v>
       </c>
-      <c r="D60" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>80</v>
+      <c r="D60" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>71</v>
       </c>
       <c r="F60" s="44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G60" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="45"/>
+        <v>6</v>
+      </c>
+      <c r="H60" s="45">
+        <v>44</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C61" s="41">
         <v>1</v>
       </c>
-      <c r="D61" s="50" t="s">
-        <v>72</v>
+      <c r="D61" s="42" t="s">
+        <v>148</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="F61" s="44">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G61" s="40" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H61" s="45"/>
     </row>
@@ -4906,603 +4930,602 @@
         <v>49</v>
       </c>
       <c r="B62" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C62" s="41">
         <v>1</v>
       </c>
-      <c r="D62" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>68</v>
+      <c r="D62" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>74</v>
       </c>
       <c r="F62" s="44">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="G62" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="H62" s="45">
-        <v>96</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H62" s="45"/>
     </row>
     <row r="63" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B63" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C63" s="41">
         <v>1</v>
       </c>
-      <c r="D63" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E63" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="F63" s="45">
-        <v>1</v>
-      </c>
-      <c r="G63" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H63" s="56"/>
+      <c r="D63" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="44">
+        <v>35</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="45">
+        <v>115</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B64" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C64" s="41">
         <v>1</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="45">
-        <v>5</v>
-      </c>
-      <c r="G64" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="44">
         <v>7</v>
       </c>
-      <c r="H64" s="56"/>
+      <c r="G64" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="45"/>
     </row>
     <row r="65" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B65" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C65" s="41">
         <v>1</v>
       </c>
-      <c r="D65" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65" s="45">
-        <v>1</v>
-      </c>
-      <c r="G65" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H65" s="56"/>
+      <c r="D65" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="44">
+        <v>2</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="45"/>
     </row>
     <row r="66" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B66" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C66" s="41">
         <v>1</v>
       </c>
-      <c r="D66" s="49" t="s">
-        <v>41</v>
+      <c r="D66" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="45">
-        <v>1</v>
-      </c>
-      <c r="G66" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="56"/>
+        <v>66</v>
+      </c>
+      <c r="F66" s="44">
+        <v>1</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="45"/>
     </row>
     <row r="67" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B67" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C67" s="41">
         <v>1</v>
       </c>
       <c r="D67" s="50" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G67" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="56"/>
+        <v>51</v>
+      </c>
+      <c r="F67" s="44">
+        <v>1</v>
+      </c>
+      <c r="G67" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="45"/>
     </row>
     <row r="68" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B68" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C68" s="41">
         <v>1</v>
       </c>
       <c r="D68" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="45">
-        <v>3</v>
-      </c>
-      <c r="G68" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="56"/>
+        <v>53</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="45"/>
     </row>
     <row r="69" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B69" s="40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C69" s="41">
         <v>1</v>
       </c>
-      <c r="D69" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="45">
+      <c r="D69" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="44">
         <v>0.5</v>
       </c>
-      <c r="G69" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="56"/>
+      <c r="G69" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="45"/>
     </row>
     <row r="70" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B70" s="40">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C70" s="41">
         <v>1</v>
       </c>
       <c r="D70" s="50" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E70" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="F70" s="45">
-        <v>1</v>
-      </c>
-      <c r="G70" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="56"/>
+        <v>61</v>
+      </c>
+      <c r="F70" s="44">
+        <v>37</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="45"/>
     </row>
     <row r="71" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B71" s="40">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C71" s="41">
         <v>1</v>
       </c>
       <c r="D71" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="F71" s="45">
-        <v>1</v>
-      </c>
-      <c r="G71" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="56"/>
+        <v>65</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="44">
+        <v>2</v>
+      </c>
+      <c r="G71" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="45"/>
     </row>
     <row r="72" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B72" s="40">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C72" s="41">
         <v>1</v>
       </c>
       <c r="D72" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="45">
-        <v>1</v>
-      </c>
-      <c r="G72" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H72" s="56"/>
+        <v>90</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="44">
+        <v>3</v>
+      </c>
+      <c r="G72" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="45"/>
     </row>
     <row r="73" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B73" s="40">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C73" s="41">
         <v>1</v>
       </c>
-      <c r="D73" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F73" s="45">
-        <v>1</v>
-      </c>
-      <c r="G73" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H73" s="56"/>
+      <c r="D73" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F73" s="44">
+        <v>32</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="45"/>
     </row>
     <row r="74" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B74" s="40">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C74" s="41">
         <v>1</v>
       </c>
-      <c r="D74" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="F74" s="45">
-        <v>2</v>
-      </c>
-      <c r="G74" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="56"/>
+      <c r="D74" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="44">
+        <v>42</v>
+      </c>
+      <c r="G74" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="45"/>
     </row>
     <row r="75" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B75" s="40">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C75" s="41">
         <v>1</v>
       </c>
       <c r="D75" s="50" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="E75" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" s="45">
-        <v>1</v>
-      </c>
-      <c r="G75" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="H75" s="56"/>
+        <v>61</v>
+      </c>
+      <c r="F75" s="44">
+        <v>5</v>
+      </c>
+      <c r="G75" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="45"/>
     </row>
     <row r="76" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B76" s="40">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C76" s="41">
         <v>1</v>
       </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F76" s="45">
-        <f>100-SUM(F59:F75)</f>
-        <v>16</v>
-      </c>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
+      <c r="D76" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="44">
+        <v>6</v>
+      </c>
+      <c r="G76" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="45"/>
     </row>
     <row r="77" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B77" s="40">
-        <v>10</v>
-      </c>
-      <c r="C77" s="40">
+        <v>6</v>
+      </c>
+      <c r="C77" s="41">
         <v>1</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="45">
-        <v>22</v>
-      </c>
-      <c r="G77" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="H77" s="56"/>
+        <v>58</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="45"/>
     </row>
     <row r="78" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B78" s="40">
-        <v>10</v>
-      </c>
-      <c r="C78" s="40">
-        <v>1</v>
-      </c>
-      <c r="D78" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="45">
-        <v>35</v>
-      </c>
-      <c r="G78" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H78" s="40">
-        <v>145</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C78" s="41">
+        <v>1</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="44">
+        <v>5</v>
+      </c>
+      <c r="G78" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="45"/>
     </row>
     <row r="79" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B79" s="40">
-        <v>10</v>
-      </c>
-      <c r="C79" s="40">
-        <v>1</v>
-      </c>
-      <c r="D79" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F79" s="45">
-        <v>8</v>
-      </c>
-      <c r="G79" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H79" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="C79" s="41">
+        <v>1</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="45"/>
     </row>
     <row r="80" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B80" s="40">
-        <v>10</v>
-      </c>
-      <c r="C80" s="40">
+        <v>6</v>
+      </c>
+      <c r="C80" s="41">
         <v>1</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F80" s="45">
-        <v>3</v>
-      </c>
-      <c r="G80" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="56"/>
+        <v>55</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="45"/>
     </row>
     <row r="81" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B81" s="40">
-        <v>10</v>
-      </c>
-      <c r="C81" s="40">
-        <v>1</v>
-      </c>
-      <c r="D81" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="41">
+        <v>1</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="E81" s="105" t="s">
-        <v>155</v>
-      </c>
-      <c r="F81" s="45">
-        <v>15</v>
-      </c>
-      <c r="G81" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" s="56"/>
+      <c r="F81" s="44">
+        <v>2</v>
+      </c>
+      <c r="G81" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="45"/>
     </row>
     <row r="82" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B82" s="40">
-        <v>10</v>
-      </c>
-      <c r="C82" s="40">
+        <v>6</v>
+      </c>
+      <c r="C82" s="41">
         <v>1</v>
       </c>
       <c r="D82" s="50" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="E82" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="F82" s="45">
-        <v>12</v>
-      </c>
-      <c r="G82" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H82" s="40">
-        <v>151</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F82" s="44">
+        <v>1</v>
+      </c>
+      <c r="G82" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="45"/>
     </row>
     <row r="83" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B83" s="40">
-        <v>10</v>
-      </c>
-      <c r="C83" s="40">
-        <v>1</v>
-      </c>
-      <c r="D83" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" s="45">
+        <v>6</v>
+      </c>
+      <c r="C83" s="41">
+        <v>1</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83" s="44">
         <v>0.5</v>
       </c>
-      <c r="G83" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H83" s="56"/>
+      <c r="G83" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="45"/>
     </row>
     <row r="84" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B84" s="40">
-        <v>10</v>
-      </c>
-      <c r="C84" s="40">
+        <v>14</v>
+      </c>
+      <c r="C84" s="41">
         <v>1</v>
       </c>
       <c r="D84" s="50" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F84" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="G84" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="56"/>
+        <v>61</v>
+      </c>
+      <c r="F84" s="44">
+        <v>35</v>
+      </c>
+      <c r="G84" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="45">
+        <v>127</v>
+      </c>
     </row>
     <row r="85" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B85" s="40">
+        <v>14</v>
+      </c>
+      <c r="C85" s="41">
+        <v>1</v>
+      </c>
+      <c r="D85" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F85" s="44">
         <v>10</v>
       </c>
-      <c r="C85" s="40">
-        <v>1</v>
-      </c>
-      <c r="D85" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F85" s="45">
+      <c r="G85" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G85" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="40">
-        <v>38</v>
-      </c>
+      <c r="H85" s="45"/>
     </row>
     <row r="86" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B86" s="40">
-        <v>10</v>
-      </c>
-      <c r="C86" s="40">
+        <v>14</v>
+      </c>
+      <c r="C86" s="41">
         <v>1</v>
       </c>
       <c r="D86" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E86" s="43" t="s">
-        <v>43</v>
+        <v>153</v>
+      </c>
+      <c r="E86" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="F86" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G86" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H86" s="56"/>
     </row>
@@ -5511,22 +5534,22 @@
         <v>49</v>
       </c>
       <c r="B87" s="40">
-        <v>10</v>
-      </c>
-      <c r="C87" s="40">
-        <v>1</v>
-      </c>
-      <c r="D87" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="C87" s="41">
+        <v>1</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="F87" s="45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G87" s="56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H87" s="56"/>
     </row>
@@ -5535,22 +5558,22 @@
         <v>49</v>
       </c>
       <c r="B88" s="40">
-        <v>10</v>
-      </c>
-      <c r="C88" s="40">
-        <v>1</v>
-      </c>
-      <c r="D88" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="43" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C88" s="41">
+        <v>1</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="F88" s="45">
         <v>1</v>
       </c>
       <c r="G88" s="56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H88" s="56"/>
     </row>
@@ -5559,22 +5582,22 @@
         <v>49</v>
       </c>
       <c r="B89" s="40">
-        <v>10</v>
-      </c>
-      <c r="C89" s="40">
-        <v>1</v>
-      </c>
-      <c r="D89" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>94</v>
+        <v>14</v>
+      </c>
+      <c r="C89" s="41">
+        <v>1</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="F89" s="45">
         <v>1</v>
       </c>
       <c r="G89" s="56" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="H89" s="56"/>
     </row>
@@ -5583,22 +5606,22 @@
         <v>49</v>
       </c>
       <c r="B90" s="40">
-        <v>10</v>
-      </c>
-      <c r="C90" s="40">
+        <v>14</v>
+      </c>
+      <c r="C90" s="41">
         <v>1</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E90" s="40" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F90" s="45">
         <v>0.5</v>
       </c>
       <c r="G90" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H90" s="56"/>
     </row>
@@ -5607,22 +5630,22 @@
         <v>49</v>
       </c>
       <c r="B91" s="40">
-        <v>10</v>
-      </c>
-      <c r="C91" s="40">
-        <v>1</v>
-      </c>
-      <c r="D91" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E91" s="48" t="s">
-        <v>114</v>
+        <v>14</v>
+      </c>
+      <c r="C91" s="41">
+        <v>1</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="F91" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G91" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H91" s="56"/>
     </row>
@@ -5631,19 +5654,23 @@
         <v>49</v>
       </c>
       <c r="B92" s="40">
-        <v>10</v>
-      </c>
-      <c r="C92" s="40">
-        <v>1</v>
-      </c>
-      <c r="D92" s="50"/>
+        <v>14</v>
+      </c>
+      <c r="C92" s="41">
+        <v>1</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>108</v>
+      </c>
       <c r="E92" s="40" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="F92" s="45">
-        <v>0</v>
-      </c>
-      <c r="G92" s="56"/>
+        <v>1</v>
+      </c>
+      <c r="G92" s="56" t="s">
+        <v>6</v>
+      </c>
       <c r="H92" s="56"/>
     </row>
     <row r="93" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -5651,48 +5678,46 @@
         <v>49</v>
       </c>
       <c r="B93" s="40">
-        <v>4</v>
-      </c>
-      <c r="C93" s="40">
+        <v>14</v>
+      </c>
+      <c r="C93" s="41">
         <v>1</v>
       </c>
       <c r="D93" s="50" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F93" s="45">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G93" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H93" s="40">
-        <v>116</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H93" s="56"/>
     </row>
     <row r="94" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B94" s="40">
-        <v>4</v>
-      </c>
-      <c r="C94" s="40">
-        <v>1</v>
-      </c>
-      <c r="D94" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E94" s="40" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="C94" s="41">
+        <v>1</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="F94" s="45">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G94" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H94" s="56"/>
     </row>
@@ -5701,72 +5726,72 @@
         <v>49</v>
       </c>
       <c r="B95" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C95" s="40">
         <v>1</v>
       </c>
       <c r="D95" s="50" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E95" s="40" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F95" s="45">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G95" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H95" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="H95" s="40">
+        <v>145</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B96" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C96" s="40">
         <v>1</v>
       </c>
-      <c r="D96" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E96" s="48" t="s">
-        <v>114</v>
+      <c r="D96" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="F96" s="45">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G96" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H96" s="40">
-        <v>28</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H96" s="56"/>
     </row>
     <row r="97" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B97" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C97" s="40">
         <v>1</v>
       </c>
       <c r="D97" s="50" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="E97" s="40" t="s">
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="F97" s="45">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G97" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H97" s="56"/>
     </row>
@@ -5775,22 +5800,22 @@
         <v>49</v>
       </c>
       <c r="B98" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C98" s="40">
         <v>1</v>
       </c>
-      <c r="D98" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="E98" s="40" t="s">
-        <v>68</v>
+      <c r="D98" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="F98" s="45">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G98" s="56" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="H98" s="56"/>
     </row>
@@ -5799,46 +5824,48 @@
         <v>49</v>
       </c>
       <c r="B99" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C99" s="40">
         <v>1</v>
       </c>
-      <c r="D99" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="E99" s="53" t="s">
-        <v>40</v>
+      <c r="D99" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="F99" s="45">
+        <v>12</v>
+      </c>
+      <c r="G99" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G99" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H99" s="56"/>
+      <c r="H99" s="40">
+        <v>151</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B100" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C100" s="40">
         <v>1</v>
       </c>
-      <c r="D100" s="111" t="s">
-        <v>160</v>
-      </c>
-      <c r="E100" s="105" t="s">
-        <v>162</v>
+      <c r="D100" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E100" s="130" t="s">
+        <v>66</v>
       </c>
       <c r="F100" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G100" s="56" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="H100" s="56"/>
     </row>
@@ -5847,22 +5874,22 @@
         <v>49</v>
       </c>
       <c r="B101" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C101" s="40">
         <v>1</v>
       </c>
-      <c r="D101" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="43" t="s">
-        <v>43</v>
+      <c r="D101" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="F101" s="45">
         <v>0.5</v>
       </c>
       <c r="G101" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H101" s="56"/>
     </row>
@@ -5871,46 +5898,48 @@
         <v>49</v>
       </c>
       <c r="B102" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C102" s="40">
         <v>1</v>
       </c>
       <c r="D102" s="50" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="F102" s="45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G102" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="H102" s="40">
+        <v>38</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B103" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C103" s="40">
         <v>1</v>
       </c>
-      <c r="D103" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="40" t="s">
-        <v>54</v>
+      <c r="D103" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="F103" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G103" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H103" s="56"/>
     </row>
@@ -5919,22 +5948,22 @@
         <v>49</v>
       </c>
       <c r="B104" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C104" s="40">
         <v>1</v>
       </c>
       <c r="D104" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F104" s="45">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G104" s="56" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="H104" s="56"/>
     </row>
@@ -5943,22 +5972,22 @@
         <v>49</v>
       </c>
       <c r="B105" s="40">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C105" s="40">
         <v>1</v>
       </c>
       <c r="D105" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E105" s="43" t="s">
-        <v>84</v>
+        <v>113</v>
+      </c>
+      <c r="E105" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="F105" s="45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G105" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H105" s="56"/>
     </row>
@@ -5973,18 +6002,20 @@
         <v>1</v>
       </c>
       <c r="D106" s="50" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E106" s="40" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="F106" s="45">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G106" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H106" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="H106" s="40">
+        <v>116</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="40" t="s">
@@ -5996,14 +6027,18 @@
       <c r="C107" s="40">
         <v>1</v>
       </c>
-      <c r="D107" s="50"/>
+      <c r="D107" s="50" t="s">
+        <v>81</v>
+      </c>
       <c r="E107" s="40" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F107" s="45">
-        <v>8</v>
-      </c>
-      <c r="G107" s="56"/>
+        <v>9</v>
+      </c>
+      <c r="G107" s="56" t="s">
+        <v>6</v>
+      </c>
       <c r="H107" s="56"/>
     </row>
     <row r="108" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6016,17 +6051,17 @@
       <c r="C108" s="40">
         <v>1</v>
       </c>
-      <c r="D108" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E108" s="48" t="s">
-        <v>45</v>
+      <c r="D108" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="F108" s="45">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="G108" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H108" s="56"/>
     </row>
@@ -6035,72 +6070,72 @@
         <v>49</v>
       </c>
       <c r="B109" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C109" s="40">
         <v>1</v>
       </c>
-      <c r="D109" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>66</v>
+      <c r="D109" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="F109" s="45">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G109" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H109" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="H109" s="40">
+        <v>28</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B110" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C110" s="40">
         <v>1</v>
       </c>
       <c r="D110" s="50" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E110" s="40" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="F110" s="45">
+        <v>10</v>
+      </c>
+      <c r="G110" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H110" s="40">
-        <v>85</v>
-      </c>
+      <c r="H110" s="56"/>
     </row>
     <row r="111" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B111" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C111" s="40">
         <v>1</v>
       </c>
-      <c r="D111" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>56</v>
+      <c r="D111" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" s="53" t="s">
+        <v>40</v>
       </c>
       <c r="F111" s="45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G111" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H111" s="56"/>
     </row>
@@ -6109,22 +6144,22 @@
         <v>49</v>
       </c>
       <c r="B112" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C112" s="40">
         <v>1</v>
       </c>
-      <c r="D112" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="E112" s="40" t="s">
-        <v>42</v>
+      <c r="D112" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="F112" s="45">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G112" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H112" s="56"/>
     </row>
@@ -6133,22 +6168,22 @@
         <v>49</v>
       </c>
       <c r="B113" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C113" s="40">
         <v>1</v>
       </c>
       <c r="D113" s="50" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E113" s="40" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F113" s="45">
         <v>1</v>
       </c>
       <c r="G113" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H113" s="56"/>
     </row>
@@ -6157,22 +6192,22 @@
         <v>49</v>
       </c>
       <c r="B114" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C114" s="40">
         <v>1</v>
       </c>
-      <c r="D114" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E114" s="40" t="s">
-        <v>100</v>
+      <c r="D114" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="F114" s="45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H114" s="56"/>
     </row>
@@ -6181,22 +6216,22 @@
         <v>49</v>
       </c>
       <c r="B115" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C115" s="40">
         <v>1</v>
       </c>
       <c r="D115" s="50" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E115" s="40" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F115" s="45">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G115" s="56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H115" s="56"/>
     </row>
@@ -6205,22 +6240,22 @@
         <v>49</v>
       </c>
       <c r="B116" s="40">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C116" s="40">
         <v>1</v>
       </c>
-      <c r="D116" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E116" s="40" t="s">
-        <v>84</v>
+      <c r="D116" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E116" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="F116" s="45">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G116" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H116" s="56"/>
     </row>
@@ -6235,16 +6270,16 @@
         <v>1</v>
       </c>
       <c r="D117" s="50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E117" s="40" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F117" s="45">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G117" s="56" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H117" s="56"/>
     </row>
@@ -6258,38 +6293,43 @@
       <c r="C118" s="40">
         <v>1</v>
       </c>
-      <c r="D118" s="50"/>
+      <c r="D118" s="50" t="s">
+        <v>97</v>
+      </c>
       <c r="E118" s="40" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="F118" s="45">
-        <f>100-SUM(F109:F117)</f>
-        <v>82</v>
-      </c>
-      <c r="G118" s="56"/>
-      <c r="H118" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="G118" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="40">
+        <v>85</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B119" s="40">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C119" s="40">
         <v>1</v>
       </c>
       <c r="D119" s="50" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E119" s="40" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F119" s="45">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G119" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H119" s="56"/>
     </row>
@@ -6298,43 +6338,47 @@
         <v>49</v>
       </c>
       <c r="B120" s="40">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C120" s="40">
         <v>1</v>
       </c>
       <c r="D120" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E120" s="40" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F120" s="45">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G120" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H120" s="40">
-        <v>77</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H120" s="56"/>
     </row>
     <row r="121" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B121" s="40">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C121" s="40">
         <v>1</v>
       </c>
-      <c r="D121" s="50"/>
-      <c r="E121" s="40"/>
+      <c r="D121" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" s="40" t="s">
+        <v>51</v>
+      </c>
       <c r="F121" s="45">
         <v>1</v>
       </c>
-      <c r="G121" s="56"/>
+      <c r="G121" s="56" t="s">
+        <v>6</v>
+      </c>
       <c r="H121" s="56"/>
     </row>
     <row r="122" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6342,22 +6386,22 @@
         <v>49</v>
       </c>
       <c r="B122" s="40">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C122" s="40">
         <v>1</v>
       </c>
-      <c r="D122" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E122" s="48" t="s">
-        <v>64</v>
+      <c r="D122" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E122" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="F122" s="45">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G122" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H122" s="56"/>
     </row>
@@ -6366,22 +6410,22 @@
         <v>49</v>
       </c>
       <c r="B123" s="40">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C123" s="40">
         <v>1</v>
       </c>
-      <c r="D123" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="E123" s="48" t="s">
-        <v>45</v>
+      <c r="D123" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E123" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="F123" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H123" s="56"/>
     </row>
@@ -6396,20 +6440,18 @@
         <v>1</v>
       </c>
       <c r="D124" s="50" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E124" s="40" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F124" s="45">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G124" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H124" s="40">
-        <v>44</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H124" s="56"/>
     </row>
     <row r="125" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="40" t="s">
@@ -6421,37 +6463,43 @@
       <c r="C125" s="40">
         <v>1</v>
       </c>
-      <c r="D125" s="50"/>
+      <c r="D125" s="50" t="s">
+        <v>55</v>
+      </c>
       <c r="E125" s="40" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F125" s="45">
-        <v>0</v>
-      </c>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
+        <v>14</v>
+      </c>
+      <c r="G125" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H125" s="40">
+        <v>77</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B126" s="40">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C126" s="40">
         <v>1</v>
       </c>
-      <c r="D126" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="E126" s="40" t="s">
-        <v>80</v>
+      <c r="D126" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E126" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="F126" s="45">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="G126" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H126" s="56"/>
     </row>
@@ -6460,50 +6508,50 @@
         <v>49</v>
       </c>
       <c r="B127" s="40">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C127" s="40">
         <v>1</v>
       </c>
-      <c r="D127" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E127" s="40" t="s">
-        <v>98</v>
+      <c r="D127" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E127" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="F127" s="45">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G127" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="40">
-        <v>89</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H127" s="56"/>
     </row>
     <row r="128" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B128" s="40">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C128" s="40">
         <v>1</v>
       </c>
       <c r="D128" s="50" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E128" s="40" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F128" s="45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G128" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H128" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="H128" s="40">
+        <v>44</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="40" t="s">
@@ -6516,16 +6564,16 @@
         <v>1</v>
       </c>
       <c r="D129" s="50" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="E129" s="40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F129" s="45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G129" s="56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H129" s="56"/>
     </row>
@@ -6539,19 +6587,21 @@
       <c r="C130" s="40">
         <v>1</v>
       </c>
-      <c r="D130" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E130" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F130" s="57">
-        <v>2</v>
-      </c>
-      <c r="G130" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H130" s="51"/>
+      <c r="D130" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E130" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F130" s="45">
+        <v>11</v>
+      </c>
+      <c r="G130" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H130" s="40">
+        <v>89</v>
+      </c>
     </row>
     <row r="131" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="40" t="s">
@@ -6563,19 +6613,19 @@
       <c r="C131" s="40">
         <v>1</v>
       </c>
-      <c r="D131" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E131" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G131" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="51"/>
+      <c r="D131" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E131" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="F131" s="45">
+        <v>15</v>
+      </c>
+      <c r="G131" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H131" s="56"/>
     </row>
     <row r="132" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="40" t="s">
@@ -6587,19 +6637,19 @@
       <c r="C132" s="40">
         <v>1</v>
       </c>
-      <c r="D132" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="E132" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="F132" s="57">
-        <v>1</v>
-      </c>
-      <c r="G132" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H132" s="51"/>
+      <c r="D132" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="45">
+        <v>2</v>
+      </c>
+      <c r="G132" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H132" s="56"/>
     </row>
     <row r="133" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="40" t="s">
@@ -6612,16 +6662,16 @@
         <v>1</v>
       </c>
       <c r="D133" s="54" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E133" s="51" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F133" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H133" s="51"/>
     </row>
@@ -6635,17 +6685,17 @@
       <c r="C134" s="40">
         <v>1</v>
       </c>
-      <c r="D134" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="E134" s="51" t="s">
-        <v>94</v>
+      <c r="D134" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="F134" s="57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G134" s="51" t="s">
-        <v>152</v>
+        <v>6</v>
       </c>
       <c r="H134" s="51"/>
     </row>
@@ -6659,15 +6709,18 @@
       <c r="C135" s="40">
         <v>1</v>
       </c>
-      <c r="D135" s="54"/>
+      <c r="D135" s="54" t="s">
+        <v>48</v>
+      </c>
       <c r="E135" s="51" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F135" s="57">
-        <f>100-SUM(F126:F134)</f>
-        <v>61.5</v>
-      </c>
-      <c r="G135" s="51"/>
+        <v>1</v>
+      </c>
+      <c r="G135" s="51" t="s">
+        <v>6</v>
+      </c>
       <c r="H135" s="51"/>
     </row>
     <row r="136" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -6690,7 +6743,7 @@
         <v>7</v>
       </c>
       <c r="G136" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H136" s="51"/>
     </row>
@@ -6714,7 +6767,7 @@
         <v>3</v>
       </c>
       <c r="G137" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H137" s="51"/>
     </row>
@@ -6738,7 +6791,7 @@
         <v>3</v>
       </c>
       <c r="G138" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H138" s="51"/>
     </row>
@@ -6762,7 +6815,7 @@
         <v>4</v>
       </c>
       <c r="G139" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H139" s="51"/>
     </row>
@@ -6786,7 +6839,7 @@
         <v>2</v>
       </c>
       <c r="G140" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H140" s="51"/>
     </row>
@@ -6810,7 +6863,7 @@
         <v>1</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H141" s="51"/>
     </row>
@@ -6819,69 +6872,74 @@
         <v>49</v>
       </c>
       <c r="B142" s="51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C142" s="51">
         <v>1</v>
       </c>
-      <c r="D142" s="42" t="s">
-        <v>78</v>
+      <c r="D142" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="E142" s="51" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F142" s="57">
-        <v>0.5</v>
+        <v>45</v>
       </c>
       <c r="G142" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H142" s="51"/>
+        <v>6</v>
+      </c>
+      <c r="H142" s="51" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B143" s="51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C143" s="51">
         <v>1</v>
       </c>
       <c r="D143" s="54" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E143" s="51" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F143" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G143" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="H143" s="51"/>
+        <v>5</v>
+      </c>
+      <c r="G143" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H143" s="58"/>
     </row>
     <row r="144" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B144" s="51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C144" s="51">
         <v>1</v>
       </c>
-      <c r="D144" s="54"/>
+      <c r="D144" s="54" t="s">
+        <v>48</v>
+      </c>
       <c r="E144" s="51" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F144" s="57">
-        <f>100-SUM(F136:F143)</f>
-        <v>79</v>
-      </c>
-      <c r="G144" s="51"/>
-      <c r="H144" s="51"/>
+        <v>0.5</v>
+      </c>
+      <c r="G144" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H144" s="58"/>
     </row>
     <row r="145" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="40" t="s">
@@ -6894,20 +6952,18 @@
         <v>1</v>
       </c>
       <c r="D145" s="54" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="E145" s="51" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="F145" s="57">
-        <v>45</v>
-      </c>
-      <c r="G145" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" s="51" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G145" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H145" s="58"/>
     </row>
     <row r="146" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="40" t="s">
@@ -6919,17 +6975,17 @@
       <c r="C146" s="51">
         <v>1</v>
       </c>
-      <c r="D146" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E146" s="51" t="s">
-        <v>111</v>
+      <c r="D146" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E146" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="F146" s="57">
         <v>1</v>
       </c>
       <c r="G146" s="58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H146" s="58"/>
     </row>
@@ -6943,17 +6999,17 @@
       <c r="C147" s="51">
         <v>1</v>
       </c>
-      <c r="D147" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E147" s="51" t="s">
-        <v>84</v>
+      <c r="D147" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="F147" s="57">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G147" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H147" s="58"/>
     </row>
@@ -6962,22 +7018,22 @@
         <v>49</v>
       </c>
       <c r="B148" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C148" s="51">
         <v>1</v>
       </c>
       <c r="D148" s="54" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E148" s="51" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F148" s="57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G148" s="58" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H148" s="58"/>
     </row>
@@ -6986,94 +7042,100 @@
         <v>49</v>
       </c>
       <c r="B149" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C149" s="51">
         <v>1</v>
       </c>
       <c r="D149" s="54" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E149" s="51" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F149" s="57">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G149" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="H149" s="58"/>
+        <v>6</v>
+      </c>
+      <c r="H149" s="51">
+        <v>142</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B150" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C150" s="51">
         <v>1</v>
       </c>
-      <c r="D150" s="54" t="s">
-        <v>48</v>
+      <c r="D150" s="42" t="s">
+        <v>110</v>
       </c>
       <c r="E150" s="51" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="F150" s="57">
-        <v>0.5</v>
+        <v>70</v>
       </c>
       <c r="G150" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H150" s="58"/>
+        <v>6</v>
+      </c>
+      <c r="H150" s="51">
+        <v>134</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B151" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C151" s="51">
         <v>1</v>
       </c>
       <c r="D151" s="54" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="E151" s="51" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F151" s="57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G151" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H151" s="58"/>
+        <v>6</v>
+      </c>
+      <c r="H151" s="51">
+        <v>35</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B152" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C152" s="51">
         <v>1</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E152" s="48" t="s">
-        <v>114</v>
+        <v>44</v>
+      </c>
+      <c r="E152" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="F152" s="57">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G152" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H152" s="58"/>
     </row>
@@ -7082,22 +7144,22 @@
         <v>49</v>
       </c>
       <c r="B153" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C153" s="51">
         <v>1</v>
       </c>
       <c r="D153" s="54" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="E153" s="51" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="F153" s="57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G153" s="58" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="H153" s="58"/>
     </row>
@@ -7106,22 +7168,22 @@
         <v>49</v>
       </c>
       <c r="B154" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C154" s="51">
         <v>1</v>
       </c>
-      <c r="D154" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E154" s="43" t="s">
-        <v>43</v>
+      <c r="D154" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E154" s="51" t="s">
+        <v>54</v>
       </c>
       <c r="F154" s="57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G154" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H154" s="58"/>
     </row>
@@ -7130,22 +7192,22 @@
         <v>49</v>
       </c>
       <c r="B155" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C155" s="51">
         <v>1</v>
       </c>
       <c r="D155" s="54" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="E155" s="51" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F155" s="57">
         <v>0.5</v>
       </c>
       <c r="G155" s="58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H155" s="58"/>
     </row>
@@ -7154,20 +7216,23 @@
         <v>49</v>
       </c>
       <c r="B156" s="51">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156" s="51">
         <v>1</v>
       </c>
-      <c r="D156" s="54"/>
+      <c r="D156" s="54" t="s">
+        <v>83</v>
+      </c>
       <c r="E156" s="51" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="F156" s="57">
-        <f>100-SUM(F145:F155)</f>
-        <v>42</v>
-      </c>
-      <c r="G156" s="58"/>
+        <v>2</v>
+      </c>
+      <c r="G156" s="58" t="s">
+        <v>6</v>
+      </c>
       <c r="H156" s="58"/>
     </row>
     <row r="157" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7175,7 +7240,7 @@
         <v>49</v>
       </c>
       <c r="B157" s="51">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C157" s="51">
         <v>1</v>
@@ -7187,10 +7252,10 @@
         <v>80</v>
       </c>
       <c r="F157" s="57">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G157" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H157" s="58"/>
     </row>
@@ -7199,25 +7264,25 @@
         <v>49</v>
       </c>
       <c r="B158" s="51">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C158" s="51">
         <v>1</v>
       </c>
       <c r="D158" s="54" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E158" s="51" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F158" s="57">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G158" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H158" s="51">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7225,7 +7290,7 @@
         <v>49</v>
       </c>
       <c r="B159" s="51">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C159" s="51">
         <v>1</v>
@@ -7237,13 +7302,13 @@
         <v>12</v>
       </c>
       <c r="F159" s="57">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G159" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H159" s="51">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7251,22 +7316,22 @@
         <v>49</v>
       </c>
       <c r="B160" s="51">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C160" s="51">
         <v>1</v>
       </c>
-      <c r="D160" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E160" s="43" t="s">
-        <v>9</v>
+      <c r="D160" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E160" s="51" t="s">
+        <v>40</v>
       </c>
       <c r="F160" s="57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G160" s="58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H160" s="58"/>
     </row>
@@ -7275,7 +7340,7 @@
         <v>49</v>
       </c>
       <c r="B161" s="51">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C161" s="51">
         <v>1</v>
@@ -7287,36 +7352,34 @@
         <v>51</v>
       </c>
       <c r="F161" s="57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G161" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H161" s="51">
-        <v>35</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H161" s="58"/>
     </row>
     <row r="162" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B162" s="51">
+        <v>1</v>
+      </c>
+      <c r="C162" s="51">
+        <v>1</v>
+      </c>
+      <c r="D162" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E162" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F162" s="57">
         <v>17</v>
       </c>
-      <c r="C162" s="51">
-        <v>1</v>
-      </c>
-      <c r="D162" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E162" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" s="57">
-        <v>0.5</v>
-      </c>
       <c r="G162" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H162" s="58"/>
     </row>
@@ -7325,22 +7388,22 @@
         <v>49</v>
       </c>
       <c r="B163" s="51">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C163" s="51">
         <v>1</v>
       </c>
-      <c r="D163" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E163" s="51" t="s">
-        <v>42</v>
+      <c r="D163" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E163" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="F163" s="57">
         <v>1</v>
       </c>
       <c r="G163" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H163" s="58"/>
     </row>
@@ -7349,22 +7412,22 @@
         <v>49</v>
       </c>
       <c r="B164" s="51">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C164" s="51">
         <v>1</v>
       </c>
-      <c r="D164" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E164" s="51" t="s">
-        <v>54</v>
+      <c r="D164" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E164" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="F164" s="57">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G164" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H164" s="58"/>
     </row>
@@ -7373,22 +7436,22 @@
         <v>49</v>
       </c>
       <c r="B165" s="51">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C165" s="51">
         <v>1</v>
       </c>
       <c r="D165" s="54" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="E165" s="51" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F165" s="57">
-        <v>0.5</v>
+        <v>9</v>
       </c>
       <c r="G165" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H165" s="58"/>
     </row>
@@ -7397,22 +7460,22 @@
         <v>49</v>
       </c>
       <c r="B166" s="51">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C166" s="51">
         <v>1</v>
       </c>
       <c r="D166" s="54" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E166" s="51" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F166" s="57">
         <v>0.5</v>
       </c>
       <c r="G166" s="58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H166" s="58"/>
     </row>
@@ -7421,46 +7484,48 @@
         <v>49</v>
       </c>
       <c r="B167" s="51">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C167" s="51">
         <v>1</v>
       </c>
       <c r="D167" s="54" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E167" s="51" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="F167" s="57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G167" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="58"/>
+        <v>6</v>
+      </c>
+      <c r="H167" s="51">
+        <v>92</v>
+      </c>
     </row>
     <row r="168" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B168" s="51">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C168" s="51">
         <v>1</v>
       </c>
       <c r="D168" s="54" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E168" s="51" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="F168" s="57">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G168" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H168" s="58"/>
     </row>
@@ -7469,42 +7534,48 @@
         <v>49</v>
       </c>
       <c r="B169" s="51">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C169" s="51">
         <v>1</v>
       </c>
-      <c r="D169" s="54"/>
+      <c r="D169" s="42" t="s">
+        <v>110</v>
+      </c>
       <c r="E169" s="51" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F169" s="57">
-        <v>0</v>
-      </c>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
+        <v>5</v>
+      </c>
+      <c r="G169" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="H169" s="51">
+        <v>84</v>
+      </c>
     </row>
     <row r="170" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B170" s="51">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C170" s="51">
         <v>1</v>
       </c>
       <c r="D170" s="54" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E170" s="51" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F170" s="57">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G170" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H170" s="58"/>
     </row>
@@ -7513,98 +7584,96 @@
         <v>49</v>
       </c>
       <c r="B171" s="51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C171" s="51">
         <v>1</v>
       </c>
       <c r="D171" s="54" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E171" s="51" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F171" s="57">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G171" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H171" s="51">
-        <v>122</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H171" s="58"/>
     </row>
     <row r="172" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B172" s="51">
+        <v>18</v>
+      </c>
+      <c r="C172" s="51">
+        <v>1</v>
+      </c>
+      <c r="D172" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E172" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F172" s="57">
         <v>5</v>
       </c>
-      <c r="C172" s="51">
-        <v>1</v>
-      </c>
-      <c r="D172" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E172" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F172" s="57">
-        <v>3</v>
-      </c>
       <c r="G172" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="H172" s="58"/>
+        <v>6</v>
+      </c>
+      <c r="H172" s="51">
+        <v>182</v>
+      </c>
     </row>
     <row r="173" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B173" s="51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C173" s="51">
         <v>1</v>
       </c>
-      <c r="D173" s="42" t="s">
-        <v>110</v>
+      <c r="D173" s="54" t="s">
+        <v>55</v>
       </c>
       <c r="E173" s="51" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F173" s="57">
-        <v>22</v>
+        <v>0.5</v>
       </c>
       <c r="G173" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H173" s="51">
-        <v>154</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H173" s="58"/>
     </row>
     <row r="174" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B174" s="51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C174" s="51">
         <v>1</v>
       </c>
       <c r="D174" s="54" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E174" s="51" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F174" s="57">
         <v>1</v>
       </c>
       <c r="G174" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H174" s="58"/>
     </row>
@@ -7613,22 +7682,22 @@
         <v>49</v>
       </c>
       <c r="B175" s="51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C175" s="51">
         <v>1</v>
       </c>
       <c r="D175" s="54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E175" s="51" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="F175" s="57">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="G175" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H175" s="58"/>
     </row>
@@ -7637,20 +7706,23 @@
         <v>49</v>
       </c>
       <c r="B176" s="51">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C176" s="51">
         <v>1</v>
       </c>
-      <c r="D176" s="54"/>
-      <c r="E176" s="51" t="s">
-        <v>60</v>
+      <c r="D176" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E176" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="F176" s="57">
-        <f>100-SUM(F170:F175)</f>
-        <v>24</v>
-      </c>
-      <c r="G176" s="58"/>
+        <v>3</v>
+      </c>
+      <c r="G176" s="58" t="s">
+        <v>6</v>
+      </c>
       <c r="H176" s="58"/>
     </row>
     <row r="177" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7658,22 +7730,22 @@
         <v>49</v>
       </c>
       <c r="B177" s="51">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C177" s="51">
         <v>1</v>
       </c>
       <c r="D177" s="54" t="s">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="E177" s="51" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="F177" s="57">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="G177" s="58" t="s">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="H177" s="58"/>
     </row>
@@ -7682,22 +7754,22 @@
         <v>49</v>
       </c>
       <c r="B178" s="51">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C178" s="51">
         <v>1</v>
       </c>
-      <c r="D178" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E178" s="105" t="s">
-        <v>155</v>
+      <c r="D178" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="E178" s="131" t="s">
+        <v>42</v>
       </c>
       <c r="F178" s="57">
-        <v>17</v>
+        <v>0.5</v>
       </c>
       <c r="G178" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H178" s="58"/>
     </row>
@@ -7706,22 +7778,22 @@
         <v>49</v>
       </c>
       <c r="B179" s="51">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C179" s="51">
         <v>1</v>
       </c>
       <c r="D179" s="54" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="E179" s="51" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="F179" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G179" s="58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H179" s="58"/>
     </row>
@@ -7730,22 +7802,22 @@
         <v>49</v>
       </c>
       <c r="B180" s="51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C180" s="51">
         <v>1</v>
       </c>
-      <c r="D180" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="E180" s="48" t="s">
-        <v>114</v>
+      <c r="D180" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E180" s="51" t="s">
+        <v>80</v>
       </c>
       <c r="F180" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G180" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H180" s="58"/>
     </row>
@@ -7754,43 +7826,49 @@
         <v>49</v>
       </c>
       <c r="B181" s="51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C181" s="51">
         <v>1</v>
       </c>
       <c r="D181" s="54" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E181" s="51" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F181" s="57">
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="G181" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="H181" s="58"/>
+        <v>6</v>
+      </c>
+      <c r="H181" s="51">
+        <v>151</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B182" s="51">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C182" s="51">
         <v>1</v>
       </c>
-      <c r="D182" s="54"/>
+      <c r="D182" s="42" t="s">
+        <v>110</v>
+      </c>
       <c r="E182" s="51" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F182" s="57">
-        <v>40</v>
-      </c>
-      <c r="G182" s="58"/>
+        <v>70</v>
+      </c>
+      <c r="G182" s="58" t="s">
+        <v>6</v>
+      </c>
       <c r="H182" s="58"/>
     </row>
     <row r="183" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -7798,22 +7876,22 @@
         <v>49</v>
       </c>
       <c r="B183" s="51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C183" s="51">
         <v>1</v>
       </c>
-      <c r="D183" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E183" s="105" t="s">
-        <v>155</v>
+      <c r="D183" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E183" s="131" t="s">
+        <v>56</v>
       </c>
       <c r="F183" s="57">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="G183" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H183" s="58"/>
     </row>
@@ -7822,22 +7900,22 @@
         <v>49</v>
       </c>
       <c r="B184" s="51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C184" s="51">
         <v>1</v>
       </c>
       <c r="D184" s="54" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="E184" s="51" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="F184" s="57">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="G184" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H184" s="58"/>
     </row>
@@ -7846,22 +7924,22 @@
         <v>49</v>
       </c>
       <c r="B185" s="51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C185" s="51">
         <v>1</v>
       </c>
       <c r="D185" s="54" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E185" s="51" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F185" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="G185" s="58" t="s">
         <v>6</v>
-      </c>
-      <c r="G185" s="58" t="s">
-        <v>145</v>
       </c>
       <c r="H185" s="58"/>
     </row>
@@ -7870,22 +7948,22 @@
         <v>49</v>
       </c>
       <c r="B186" s="51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C186" s="51">
         <v>1</v>
       </c>
       <c r="D186" s="54" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E186" s="51" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F186" s="57">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G186" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H186" s="58"/>
     </row>
@@ -7894,48 +7972,46 @@
         <v>49</v>
       </c>
       <c r="B187" s="51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C187" s="51">
         <v>1</v>
       </c>
       <c r="D187" s="54" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E187" s="51" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="F187" s="57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G187" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H187" s="51">
-        <v>92</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H187" s="58"/>
     </row>
     <row r="188" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B188" s="51">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C188" s="51">
         <v>1</v>
       </c>
       <c r="D188" s="54" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="E188" s="51" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="F188" s="57">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="G188" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H188" s="58"/>
     </row>
@@ -7944,48 +8020,46 @@
         <v>49</v>
       </c>
       <c r="B189" s="51">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C189" s="51">
         <v>1</v>
       </c>
-      <c r="D189" s="42" t="s">
-        <v>110</v>
+      <c r="D189" s="54" t="s">
+        <v>101</v>
       </c>
       <c r="E189" s="51" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="F189" s="57">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G189" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H189" s="51">
-        <v>84</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H189" s="58"/>
     </row>
     <row r="190" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B190" s="51">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C190" s="51">
         <v>1</v>
       </c>
       <c r="D190" s="54" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E190" s="51" t="s">
-        <v>42</v>
+        <v>155</v>
       </c>
       <c r="F190" s="57">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G190" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H190" s="58"/>
     </row>
@@ -7994,22 +8068,22 @@
         <v>49</v>
       </c>
       <c r="B191" s="51">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C191" s="51">
         <v>1</v>
       </c>
       <c r="D191" s="54" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E191" s="51" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F191" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G191" s="58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H191" s="58"/>
     </row>
@@ -8018,20 +8092,23 @@
         <v>49</v>
       </c>
       <c r="B192" s="51">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C192" s="51">
         <v>1</v>
       </c>
-      <c r="D192" s="54"/>
+      <c r="D192" s="54" t="s">
+        <v>90</v>
+      </c>
       <c r="E192" s="51" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F192" s="57">
-        <f>100-SUM(F183:F191)</f>
-        <v>20</v>
-      </c>
-      <c r="G192" s="58"/>
+        <v>2</v>
+      </c>
+      <c r="G192" s="58" t="s">
+        <v>6</v>
+      </c>
       <c r="H192" s="58"/>
     </row>
     <row r="193" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -8039,22 +8116,22 @@
         <v>49</v>
       </c>
       <c r="B193" s="51">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C193" s="51">
         <v>1</v>
       </c>
       <c r="D193" s="54" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E193" s="51" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F193" s="57">
-        <v>39</v>
+        <v>0.5</v>
       </c>
       <c r="G193" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H193" s="58"/>
     </row>
@@ -8063,120 +8140,120 @@
         <v>49</v>
       </c>
       <c r="B194" s="51">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C194" s="51">
         <v>1</v>
       </c>
       <c r="D194" s="54" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E194" s="51" t="s">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="F194" s="57">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="G194" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H194" s="51">
-        <v>182</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H194" s="58"/>
     </row>
     <row r="195" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B195" s="51">
-        <v>18</v>
-      </c>
-      <c r="C195" s="51">
-        <v>1</v>
-      </c>
-      <c r="D195" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E195" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F195" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G195" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H195" s="58"/>
+      <c r="B195" s="40">
+        <v>8</v>
+      </c>
+      <c r="C195" s="41">
+        <v>1</v>
+      </c>
+      <c r="D195" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E195" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F195" s="44">
+        <v>1</v>
+      </c>
+      <c r="G195" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H195" s="45"/>
     </row>
     <row r="196" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B196" s="51">
-        <v>18</v>
-      </c>
-      <c r="C196" s="51">
-        <v>1</v>
-      </c>
-      <c r="D196" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E196" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F196" s="57">
-        <v>1</v>
-      </c>
-      <c r="G196" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H196" s="58"/>
+      <c r="B196" s="40">
+        <v>14</v>
+      </c>
+      <c r="C196" s="41">
+        <v>1</v>
+      </c>
+      <c r="D196" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E196" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F196" s="44">
+        <v>10</v>
+      </c>
+      <c r="G196" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H196" s="45">
+        <v>96</v>
+      </c>
     </row>
     <row r="197" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B197" s="51">
-        <v>18</v>
-      </c>
-      <c r="C197" s="51">
-        <v>1</v>
-      </c>
-      <c r="D197" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E197" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197" s="57">
-        <v>1</v>
-      </c>
-      <c r="G197" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H197" s="58"/>
+      <c r="B197" s="40">
+        <v>4</v>
+      </c>
+      <c r="C197" s="40">
+        <v>1</v>
+      </c>
+      <c r="D197" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E197" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F197" s="45">
+        <v>1</v>
+      </c>
+      <c r="G197" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H197" s="56"/>
     </row>
     <row r="198" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B198" s="51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C198" s="51">
         <v>1</v>
       </c>
       <c r="D198" s="54" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E198" s="51" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="F198" s="57">
         <v>0.5</v>
       </c>
       <c r="G198" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H198" s="58"/>
     </row>
@@ -8185,22 +8262,22 @@
         <v>49</v>
       </c>
       <c r="B199" s="51">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C199" s="51">
         <v>1</v>
       </c>
-      <c r="D199" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="E199" s="105" t="s">
-        <v>155</v>
+      <c r="D199" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="E199" s="131" t="s">
+        <v>68</v>
       </c>
       <c r="F199" s="57">
         <v>3</v>
       </c>
       <c r="G199" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H199" s="58"/>
     </row>
@@ -8209,22 +8286,22 @@
         <v>49</v>
       </c>
       <c r="B200" s="51">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C200" s="51">
         <v>1</v>
       </c>
       <c r="D200" s="54" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E200" s="51" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F200" s="57">
         <v>1</v>
       </c>
       <c r="G200" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H200" s="58"/>
     </row>
@@ -8233,22 +8310,22 @@
         <v>49</v>
       </c>
       <c r="B201" s="51">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C201" s="51">
         <v>1</v>
       </c>
       <c r="D201" s="54" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="E201" s="51" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="F201" s="57">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G201" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H201" s="58"/>
     </row>
@@ -8256,165 +8333,167 @@
       <c r="A202" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B202" s="51">
-        <v>18</v>
-      </c>
-      <c r="C202" s="51">
-        <v>1</v>
-      </c>
-      <c r="D202" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="E202" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="F202" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G202" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H202" s="58"/>
+      <c r="B202" s="40">
+        <v>16</v>
+      </c>
+      <c r="C202" s="41">
+        <v>1</v>
+      </c>
+      <c r="D202" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="E202" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F202" s="44">
+        <v>15</v>
+      </c>
+      <c r="G202" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="H202" s="45"/>
     </row>
     <row r="203" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B203" s="51">
-        <v>18</v>
-      </c>
-      <c r="C203" s="51">
-        <v>1</v>
-      </c>
-      <c r="D203" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E203" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F203" s="57">
-        <v>2</v>
-      </c>
-      <c r="G203" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H203" s="58"/>
+      <c r="B203" s="40">
+        <v>14</v>
+      </c>
+      <c r="C203" s="41">
+        <v>1</v>
+      </c>
+      <c r="D203" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E203" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F203" s="45">
+        <v>1</v>
+      </c>
+      <c r="G203" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H203" s="56"/>
     </row>
     <row r="204" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B204" s="51">
-        <v>18</v>
-      </c>
-      <c r="C204" s="51">
-        <v>1</v>
-      </c>
-      <c r="D204" s="54"/>
+      <c r="B204" s="40">
+        <v>10</v>
+      </c>
+      <c r="C204" s="40">
+        <v>1</v>
+      </c>
+      <c r="D204" s="50" t="s">
+        <v>93</v>
+      </c>
       <c r="E204" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="F204" s="57">
-        <v>46</v>
-      </c>
-      <c r="G204" s="58"/>
-      <c r="H204" s="58"/>
+        <v>94</v>
+      </c>
+      <c r="F204" s="45">
+        <v>1</v>
+      </c>
+      <c r="G204" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H204" s="56"/>
     </row>
     <row r="205" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B205" s="51">
-        <v>7</v>
-      </c>
-      <c r="C205" s="51">
-        <v>1</v>
-      </c>
-      <c r="D205" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="E205" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="F205" s="57">
-        <v>3</v>
-      </c>
-      <c r="G205" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H205" s="58"/>
+      <c r="B205" s="40">
+        <v>4</v>
+      </c>
+      <c r="C205" s="40">
+        <v>1</v>
+      </c>
+      <c r="D205" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="E205" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="F205" s="45">
+        <v>1</v>
+      </c>
+      <c r="G205" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H205" s="56"/>
     </row>
     <row r="206" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B206" s="51">
-        <v>7</v>
-      </c>
-      <c r="C206" s="51">
-        <v>1</v>
-      </c>
-      <c r="D206" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E206" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F206" s="57">
-        <v>7</v>
-      </c>
-      <c r="G206" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H206" s="51">
+      <c r="B206" s="40">
+        <v>4</v>
+      </c>
+      <c r="C206" s="40">
+        <v>1</v>
+      </c>
+      <c r="D206" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E206" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F206" s="45">
+        <v>1</v>
+      </c>
+      <c r="G206" s="56" t="s">
         <v>151</v>
       </c>
+      <c r="H206" s="56"/>
     </row>
     <row r="207" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B207" s="51">
-        <v>7</v>
-      </c>
-      <c r="C207" s="51">
-        <v>1</v>
-      </c>
-      <c r="D207" s="42" t="s">
-        <v>110</v>
+      <c r="B207" s="40">
+        <v>2</v>
+      </c>
+      <c r="C207" s="40">
+        <v>1</v>
+      </c>
+      <c r="D207" s="54" t="s">
+        <v>93</v>
       </c>
       <c r="E207" s="51" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F207" s="57">
-        <v>70</v>
-      </c>
-      <c r="G207" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H207" s="58"/>
+        <v>1</v>
+      </c>
+      <c r="G207" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="H207" s="51"/>
     </row>
     <row r="208" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B208" s="51">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C208" s="51">
         <v>1</v>
       </c>
       <c r="D208" s="54" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E208" s="51" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F208" s="57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G208" s="58" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H208" s="58"/>
     </row>
@@ -8422,307 +8501,293 @@
       <c r="A209" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B209" s="51">
-        <v>7</v>
-      </c>
-      <c r="C209" s="51">
-        <v>1</v>
-      </c>
-      <c r="D209" s="42" t="s">
-        <v>50</v>
-      </c>
+      <c r="B209" s="40">
+        <v>15</v>
+      </c>
+      <c r="C209" s="41">
+        <v>1</v>
+      </c>
+      <c r="D209" s="50"/>
       <c r="E209" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F209" s="57">
-        <v>2</v>
-      </c>
-      <c r="G209" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F209" s="44">
+        <v>5</v>
+      </c>
+      <c r="G209" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H209" s="58"/>
+      <c r="H209" s="45"/>
     </row>
     <row r="210" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B210" s="51">
-        <v>7</v>
-      </c>
-      <c r="C210" s="51">
-        <v>1</v>
-      </c>
-      <c r="D210" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E210" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F210" s="57">
-        <v>1</v>
-      </c>
-      <c r="G210" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H210" s="58"/>
+      <c r="B210" s="40">
+        <v>8</v>
+      </c>
+      <c r="C210" s="41">
+        <v>1</v>
+      </c>
+      <c r="D210" s="50"/>
+      <c r="E210" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F210" s="44">
+        <f>100-SUM(F201:F209)</f>
+        <v>71</v>
+      </c>
+      <c r="G210" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" s="45"/>
     </row>
     <row r="211" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B211" s="51">
-        <v>7</v>
-      </c>
-      <c r="C211" s="51">
-        <v>1</v>
-      </c>
-      <c r="D211" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E211" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F211" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G211" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H211" s="58"/>
+      <c r="B211" s="40">
+        <v>3</v>
+      </c>
+      <c r="C211" s="41">
+        <v>1</v>
+      </c>
+      <c r="D211" s="50"/>
+      <c r="E211" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="F211" s="44">
+        <v>20</v>
+      </c>
+      <c r="G211" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H211" s="45"/>
     </row>
     <row r="212" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B212" s="51">
-        <v>7</v>
-      </c>
-      <c r="C212" s="51">
-        <v>1</v>
-      </c>
-      <c r="D212" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="E212" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F212" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G212" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H212" s="58"/>
+      <c r="B212" s="40">
+        <v>3</v>
+      </c>
+      <c r="C212" s="41">
+        <v>1</v>
+      </c>
+      <c r="D212" s="50"/>
+      <c r="E212" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F212" s="44">
+        <f>100-SUM(F207:F211)</f>
+        <v>1</v>
+      </c>
+      <c r="G212" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H212" s="45"/>
     </row>
     <row r="213" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B213" s="51">
-        <v>7</v>
-      </c>
-      <c r="C213" s="51">
-        <v>1</v>
-      </c>
-      <c r="D213" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="E213" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="F213" s="57">
-        <v>2</v>
-      </c>
-      <c r="G213" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H213" s="58"/>
+      <c r="B213" s="40">
+        <v>6</v>
+      </c>
+      <c r="C213" s="41">
+        <v>1</v>
+      </c>
+      <c r="D213" s="50"/>
+      <c r="E213" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F213" s="44">
+        <f>100-SUM(F201:F212)</f>
+        <v>-21</v>
+      </c>
+      <c r="G213" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="45"/>
     </row>
     <row r="214" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B214" s="51">
-        <v>7</v>
-      </c>
-      <c r="C214" s="51">
-        <v>1</v>
-      </c>
-      <c r="D214" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E214" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F214" s="57">
-        <v>1</v>
-      </c>
-      <c r="G214" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="H214" s="58"/>
+      <c r="B214" s="40">
+        <v>14</v>
+      </c>
+      <c r="C214" s="41">
+        <v>1</v>
+      </c>
+      <c r="D214" s="50"/>
+      <c r="E214" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F214" s="45">
+        <f>100-SUM(F197:F213)</f>
+        <v>-5.5</v>
+      </c>
+      <c r="G214" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="56"/>
     </row>
     <row r="215" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B215" s="51">
-        <v>7</v>
-      </c>
-      <c r="C215" s="51">
-        <v>1</v>
-      </c>
-      <c r="D215" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E215" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="F215" s="57">
-        <v>2</v>
-      </c>
-      <c r="G215" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H215" s="58"/>
+      <c r="B215" s="40">
+        <v>10</v>
+      </c>
+      <c r="C215" s="40">
+        <v>1</v>
+      </c>
+      <c r="D215" s="50"/>
+      <c r="E215" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F215" s="45">
+        <v>0</v>
+      </c>
+      <c r="G215" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="56"/>
     </row>
     <row r="216" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B216" s="51">
-        <v>7</v>
-      </c>
-      <c r="C216" s="51">
-        <v>1</v>
-      </c>
-      <c r="D216" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E216" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F216" s="57">
-        <v>1</v>
-      </c>
-      <c r="G216" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="H216" s="58"/>
+      <c r="B216" s="40">
+        <v>4</v>
+      </c>
+      <c r="C216" s="40">
+        <v>1</v>
+      </c>
+      <c r="D216" s="50"/>
+      <c r="E216" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F216" s="45">
+        <v>8</v>
+      </c>
+      <c r="G216" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="56"/>
     </row>
     <row r="217" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B217" s="51">
-        <v>7</v>
-      </c>
-      <c r="C217" s="51">
-        <v>1</v>
-      </c>
-      <c r="D217" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="E217" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="F217" s="57">
-        <v>10</v>
-      </c>
-      <c r="G217" s="58" t="s">
+      <c r="B217" s="40">
+        <v>20</v>
+      </c>
+      <c r="C217" s="40">
+        <v>1</v>
+      </c>
+      <c r="D217" s="50"/>
+      <c r="E217" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="F217" s="45">
+        <f>100-SUM(F208:F216)</f>
+        <v>19.5</v>
+      </c>
+      <c r="G217" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H217" s="58"/>
+      <c r="H217" s="56"/>
     </row>
     <row r="218" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B218" s="51">
-        <v>7</v>
-      </c>
-      <c r="C218" s="51">
-        <v>1</v>
-      </c>
-      <c r="D218" s="54"/>
-      <c r="E218" s="51" t="s">
+      <c r="B218" s="40">
+        <v>11</v>
+      </c>
+      <c r="C218" s="40">
+        <v>1</v>
+      </c>
+      <c r="D218" s="50"/>
+      <c r="E218" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F218" s="57">
-        <v>5</v>
-      </c>
-      <c r="G218" s="58"/>
-      <c r="H218" s="58"/>
+      <c r="F218" s="45">
+        <v>0</v>
+      </c>
+      <c r="G218" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="56"/>
     </row>
     <row r="219" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B219" s="51">
-        <v>12</v>
-      </c>
-      <c r="C219" s="51">
-        <v>1</v>
-      </c>
-      <c r="D219" s="54" t="s">
-        <v>81</v>
-      </c>
+      <c r="B219" s="40">
+        <v>2</v>
+      </c>
+      <c r="C219" s="40">
+        <v>1</v>
+      </c>
+      <c r="D219" s="54"/>
       <c r="E219" s="51" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F219" s="57">
-        <v>4</v>
-      </c>
-      <c r="G219" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H219" s="58"/>
+        <f>100-SUM(F211:F218)</f>
+        <v>78</v>
+      </c>
+      <c r="G219" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="51"/>
     </row>
     <row r="220" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B220" s="51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C220" s="51">
         <v>1</v>
       </c>
-      <c r="D220" s="54" t="s">
-        <v>72</v>
-      </c>
+      <c r="D220" s="54"/>
       <c r="E220" s="51" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F220" s="57">
-        <v>2</v>
-      </c>
-      <c r="G220" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="H220" s="58"/>
+        <f>100-SUM(F213:F219)</f>
+        <v>21</v>
+      </c>
+      <c r="G220" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H220" s="51"/>
     </row>
     <row r="221" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="40" t="s">
         <v>49</v>
       </c>
       <c r="B221" s="51">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C221" s="51">
         <v>1</v>
       </c>
-      <c r="D221" s="54" t="s">
-        <v>101</v>
-      </c>
+      <c r="D221" s="54"/>
       <c r="E221" s="51" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="F221" s="57">
-        <v>3</v>
+        <f>100-SUM(F211:F220)</f>
+        <v>-21</v>
       </c>
       <c r="G221" s="58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H221" s="58"/>
     </row>
@@ -8731,22 +8796,20 @@
         <v>49</v>
       </c>
       <c r="B222" s="51">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C222" s="51">
         <v>1</v>
       </c>
-      <c r="D222" s="54" t="s">
-        <v>92</v>
-      </c>
+      <c r="D222" s="54"/>
       <c r="E222" s="51" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="F222" s="57">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G222" s="58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H222" s="58"/>
     </row>
@@ -8755,22 +8818,21 @@
         <v>49</v>
       </c>
       <c r="B223" s="51">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C223" s="51">
         <v>1</v>
       </c>
-      <c r="D223" s="54" t="s">
-        <v>97</v>
-      </c>
+      <c r="D223" s="54"/>
       <c r="E223" s="51" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="F223" s="57">
-        <v>2</v>
+        <f>100-SUM(F218:F222)</f>
+        <v>22</v>
       </c>
       <c r="G223" s="58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H223" s="58"/>
     </row>
@@ -8779,19 +8841,17 @@
         <v>49</v>
       </c>
       <c r="B224" s="51">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C224" s="51">
         <v>1</v>
       </c>
-      <c r="D224" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E224" s="43" t="s">
-        <v>9</v>
+      <c r="D224" s="54"/>
+      <c r="E224" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="F224" s="57">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G224" s="58" t="s">
         <v>8</v>
@@ -8803,22 +8863,21 @@
         <v>49</v>
       </c>
       <c r="B225" s="51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C225" s="51">
         <v>1</v>
       </c>
-      <c r="D225" s="54" t="s">
-        <v>90</v>
-      </c>
+      <c r="D225" s="54"/>
       <c r="E225" s="51" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F225" s="57">
-        <v>2</v>
+        <f>100-SUM(F217:F224)</f>
+        <v>-59.5</v>
       </c>
       <c r="G225" s="58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H225" s="58"/>
     </row>
@@ -8827,22 +8886,20 @@
         <v>49</v>
       </c>
       <c r="B226" s="51">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C226" s="51">
         <v>1</v>
       </c>
-      <c r="D226" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E226" s="51" t="s">
-        <v>66</v>
+      <c r="D226" s="54"/>
+      <c r="E226" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="F226" s="57">
-        <v>0.5</v>
+        <v>46</v>
       </c>
       <c r="G226" s="58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H226" s="58"/>
     </row>
@@ -8851,50 +8908,27 @@
         <v>49</v>
       </c>
       <c r="B227" s="51">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C227" s="51">
         <v>1</v>
       </c>
-      <c r="D227" s="54" t="s">
-        <v>106</v>
-      </c>
+      <c r="D227" s="54"/>
       <c r="E227" s="51" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="F227" s="57">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="G227" s="58" t="s">
         <v>8</v>
       </c>
       <c r="H227" s="58"/>
     </row>
-    <row r="228" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B228" s="51">
-        <v>12</v>
-      </c>
-      <c r="C228" s="51">
-        <v>1</v>
-      </c>
-      <c r="D228" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E228" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="F228" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="G228" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H228" s="58"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H227">
+    <sortCondition ref="G2:G227"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -8940,37 +8974,37 @@
       <c r="B1" s="59"/>
       <c r="C1" s="60"/>
       <c r="D1" s="61"/>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="118" t="s">
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="121" t="s">
+      <c r="J1" s="115"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="124" t="s">
+      <c r="M1" s="118"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="127" t="s">
+      <c r="P1" s="121"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="128"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="112" t="s">
+      <c r="S1" s="124"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="113"/>
-      <c r="W1" s="114"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="110"/>
       <c r="X1" s="62"/>
       <c r="Y1" s="63"/>
     </row>
@@ -8994,7 +9028,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="66" t="s">
         <v>25</v>
@@ -9045,10 +9079,10 @@
         <v>28</v>
       </c>
       <c r="X2" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="83" t="s">
         <v>5</v>
-      </c>
-      <c r="Y2" s="83" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9067,11 +9101,11 @@
       <c r="E3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="105" t="s">
         <v>115</v>
       </c>
       <c r="G3" s="87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>119</v>
@@ -9129,11 +9163,11 @@
       <c r="E4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="107" t="s">
+      <c r="F4" s="106" t="s">
         <v>116</v>
       </c>
       <c r="G4" s="88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>119</v>
@@ -22044,7 +22078,7 @@
         <v>30</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="91" t="s">
         <v>31</v>
@@ -22053,10 +22087,10 @@
         <v>32</v>
       </c>
       <c r="I1" s="82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J1" s="93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -22081,7 +22115,7 @@
       </c>
       <c r="H2" s="99"/>
       <c r="I2" s="100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="101"/>
     </row>
@@ -22107,7 +22141,7 @@
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="29"/>
     </row>
@@ -22133,7 +22167,7 @@
       </c>
       <c r="H4" s="27"/>
       <c r="I4" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="29"/>
     </row>
@@ -22211,7 +22245,7 @@
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="29"/>
     </row>
@@ -22237,7 +22271,7 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J8" s="29"/>
     </row>
@@ -22263,7 +22297,7 @@
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="29"/>
     </row>
@@ -22289,7 +22323,7 @@
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="29"/>
     </row>
@@ -22315,7 +22349,7 @@
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="29"/>
     </row>
@@ -22341,7 +22375,7 @@
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" s="29"/>
     </row>
@@ -22367,7 +22401,7 @@
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="29"/>
     </row>
@@ -22393,7 +22427,7 @@
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="29"/>
     </row>
@@ -23188,14 +23222,14 @@
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="130" t="s">
+      <c r="E1" s="127"/>
+      <c r="F1" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="131"/>
+      <c r="G1" s="127"/>
       <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -23221,7 +23255,7 @@
         <v>39</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
